--- a/biology/Botanique/Pin_rouge_du_Japon/Pin_rouge_du_Japon.xlsx
+++ b/biology/Botanique/Pin_rouge_du_Japon/Pin_rouge_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus densiflora
 Le pin rouge du Japon ou pin parasol du Japon (Pinus densiflora) est un arbre appartenant à la famille des Pinacées et au genre Pinus. Il est originaire du nord-est de la Chine, de Corée, du Japon et de Russie (sud du Primorié).
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à feuilles persistantes qui fait généralement une hauteur de 15 m, mais peut atteindre 35 m. Son habitat est très varié, on le trouve au niveau de la mer et en montagne. Son port est aussi variable selon les variétés naturelles, érigé ou étalé. C'est une espèce proche de Pinus sylvestris.
 Son écorce est brun-rouge, et devient gris-rouge au fil du temps. Elle se craquelle en plaques irrégulières.
